--- a/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
+++ b/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>zu bereinigen (nicht gesperrte Segmente)</t>
   </si>
@@ -95,6 +95,63 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Häufigkeit korrekt</t>
+  </si>
+  <si>
+    <t>Häufigkeit inkorrekt</t>
+  </si>
+  <si>
+    <t>Erklärungen</t>
+  </si>
+  <si>
+    <t>Statusoptionen:</t>
+  </si>
+  <si>
+    <t>(1) Änderung durchgeführt</t>
+  </si>
+  <si>
+    <t>(2) Neue VZB nicht passend</t>
+  </si>
+  <si>
+    <t>(3) Zielterm nicht vorhanden</t>
+  </si>
+  <si>
+    <t>(4) Keine Änderung nötig</t>
+  </si>
+  <si>
+    <t>(5) Quell-/Zielsegment nicht passend</t>
+  </si>
+  <si>
+    <t>(6) Nacharbeit</t>
+  </si>
+  <si>
+    <t>Zeichen: werden immer im Target (Zielsprache) gezählt</t>
+  </si>
+  <si>
+    <t>Zeilen: Berechnung: Zeichen / 55</t>
+  </si>
+  <si>
+    <t>Termini im roten Block: Termini im Source (Quellsprache) ohne Entsprechung im Target (Zielsprache), im Editor rot markiert ( = termNotFound im source)</t>
+  </si>
+  <si>
+    <t>Termini im blauen Block: Termini im Source (Quellsprache) mit Entsprechung im Target (Zielsprache), im Editor blau markiert ( = termFound im source)</t>
+  </si>
+  <si>
+    <t>Segmente im roten Block: Segmente im Source (Quellsprache) mit mindestens einem rot markierten Terminus. Im Editor sind das zum Zeitpunkt des Imports alle nicht gesperrten Segmente (= segmentsNotFound im source)</t>
+  </si>
+  <si>
+    <t>Segmente im blauen Block: Segmente im Source (Quellsprache) mit mindestens einem blau markierten Terminus. Im Editor sind das alle gesperrten Segmente und ein Teil der nicht gesperrten (= segmentsFound im source)</t>
+  </si>
+  <si>
+    <t>Wörter im roten Block: Anzahl der Wörter in Segmenten mit mindestens einem rot markierten Terminus</t>
+  </si>
+  <si>
+    <t>Wörter im blauen Block: Anzahl der Wörter in Segmenten mit mindestens einem blau markierten Terminus</t>
+  </si>
+  <si>
+    <t>Die Arbeitsblätter 3 bis n sind nach den Zeilen auf dem Blatt „Zusammenfassung“ benannt.</t>
   </si>
   <si>
     <r>
@@ -102,71 +159,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>[nach Häufigkeit korrekt geordnet]</t>
+      <t xml:space="preserve">[nach Häufigkeit korrekt geordnet] </t>
     </r>
-  </si>
-  <si>
-    <t>Häufigkeit korrekt</t>
-  </si>
-  <si>
-    <t>Häufigkeit inkorrekt</t>
-  </si>
-  <si>
-    <t>Erklärungen</t>
-  </si>
-  <si>
-    <t>Statusoptionen:</t>
-  </si>
-  <si>
-    <t>(1) Änderung durchgeführt</t>
-  </si>
-  <si>
-    <t>(2) Neue VZB nicht passend</t>
-  </si>
-  <si>
-    <t>(3) Zielterm nicht vorhanden</t>
-  </si>
-  <si>
-    <t>(4) Keine Änderung nötig</t>
-  </si>
-  <si>
-    <t>(5) Quell-/Zielsegment nicht passend</t>
-  </si>
-  <si>
-    <t>(6) Nacharbeit</t>
-  </si>
-  <si>
-    <t>Zeichen: werden immer im Target (Zielsprache) gezählt</t>
-  </si>
-  <si>
-    <t>Zeilen: Berechnung: Zeichen / 55</t>
-  </si>
-  <si>
-    <t>Termini im roten Block: Termini im Source (Quellsprache) ohne Entsprechung im Target (Zielsprache), im Editor rot markiert ( = termNotFound im source)</t>
-  </si>
-  <si>
-    <t>Termini im blauen Block: Termini im Source (Quellsprache) mit Entsprechung im Target (Zielsprache), im Editor blau markiert ( = termFound im source)</t>
-  </si>
-  <si>
-    <t>Segmente im roten Block: Segmente im Source (Quellsprache) mit mindestens einem rot markierten Terminus. Im Editor sind das zum Zeitpunkt des Imports alle nicht gesperrten Segmente (= segmentsNotFound im source)</t>
-  </si>
-  <si>
-    <t>Segmente im blauen Block: Segmente im Source (Quellsprache) mit mindestens einem blau markierten Terminus. Im Editor sind das alle gesperrten Segmente und ein Teil der nicht gesperrten (= segmentsFound im source)</t>
-  </si>
-  <si>
-    <t>Wörter im roten Block: Anzahl der Wörter in Segmenten mit mindestens einem rot markierten Terminus</t>
-  </si>
-  <si>
-    <t>Wörter im blauen Block: Anzahl der Wörter in Segmenten mit mindestens einem blau markierten Terminus</t>
-  </si>
-  <si>
-    <t>Die Arbeitsblätter 3 bis n sind nach den Zeilen auf dem Blatt „Zusammenfassung“ benannt.</t>
   </si>
 </sst>
 </file>
@@ -180,43 +179,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -242,6 +204,38 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,19 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,39 +311,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,214 +639,216 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" s="13" customFormat="1" ht="12.75">
+      <c r="A1" s="2"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="26.25">
-      <c r="A2" s="5" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="25.5">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="13" customFormat="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" s="12" customFormat="1" ht="12.75">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="e">
+      <c r="C3" s="8" t="e">
         <f>ROUND(B3/55,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="e">
+      <c r="F3" s="8" t="e">
         <f>ROUND(D3/C3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="11" t="e">
+      <c r="G3" s="8" t="e">
         <f>ROUND(D3/E3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="e">
+      <c r="I3" s="8" t="e">
         <f>ROUND(H3/E3,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="e">
+      <c r="K3" s="8" t="e">
         <f>ROUND(J3/55,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="e">
+      <c r="N3" s="8" t="e">
         <f>ROUND(L3/K3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O3" s="11" t="e">
+      <c r="O3" s="8" t="e">
         <f>ROUND(L3/M3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="11" t="e">
+      <c r="Q3" s="8" t="e">
         <f>ROUND(P3/M3,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <f>SUM(A3:A3)</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:17" s="13" customFormat="1" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
         <f>SUM(B3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="e">
+      <c r="C4" s="1" t="e">
         <f>SUM(C3:C3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f>SUM(D3:D3)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f>SUM(E3:E3)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="e">
+      <c r="F4" s="1" t="e">
         <f>ROUND(D4/C4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="8" t="e">
+      <c r="G4" s="1" t="e">
         <f t="shared" ref="G4" si="0">ROUND(D4/E4, 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <f>SUM(H3:H3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="8" t="e">
+      <c r="I4" s="1" t="e">
         <f>ROUND(H4/E4,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <f>SUM(J3:J3)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="e">
+      <c r="K4" s="2" t="e">
         <f>SUM(K3:K3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <f>SUM(L3:L3)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <f>SUM(M3:M3)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="8" t="e">
+      <c r="N4" s="1" t="e">
         <f>ROUND(L4/K4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O4" s="8" t="e">
+      <c r="O4" s="1" t="e">
         <f t="shared" ref="O4" si="1">ROUND(L4/M4, 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <f>SUM(P3:P3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="7" t="e">
+      <c r="Q4" s="1" t="e">
         <f>ROUND(P4/M4,2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -884,14 +868,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="74.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -912,26 +896,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" s="16" customFormat="1">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <f>SUM(B3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <f>SUM(C3:C3)</f>
         <v>0</v>
       </c>
@@ -943,37 +927,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -982,7 +960,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -991,97 +969,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+    <row r="5" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+    <row r="6" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+    <row r="7" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="21" t="s">
+    <row r="8" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="21" t="s">
+    <row r="9" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
+    <row r="10" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="11" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="22"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="22" t="s">
+    <row r="12" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A12" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
+    <row r="13" spans="1:1" s="10" customFormat="1" ht="25.5">
+      <c r="A13" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:1" s="10" customFormat="1" ht="25.5">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:1" s="10" customFormat="1" ht="38.25">
+      <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="45">
-      <c r="A15" s="21" t="s">
+    <row r="16" spans="1:1" s="10" customFormat="1" ht="38.25">
+      <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45">
-      <c r="A16" s="21" t="s">
+    <row r="17" spans="1:1" s="10" customFormat="1" ht="25.5">
+      <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:1" s="10" customFormat="1" ht="25.5">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30">
-      <c r="A18" s="21" t="s">
+    <row r="19" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="A20" s="18" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="22"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
+++ b/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>zu bereinigen (nicht gesperrte Segmente)</t>
   </si>
@@ -125,30 +125,6 @@
   </si>
   <si>
     <t>(6) Nacharbeit</t>
-  </si>
-  <si>
-    <t>Zeichen: werden immer im Target (Zielsprache) gezählt</t>
-  </si>
-  <si>
-    <t>Zeilen: Berechnung: Zeichen / 55</t>
-  </si>
-  <si>
-    <t>Termini im roten Block: Termini im Source (Quellsprache) ohne Entsprechung im Target (Zielsprache), im Editor rot markiert ( = termNotFound im source)</t>
-  </si>
-  <si>
-    <t>Termini im blauen Block: Termini im Source (Quellsprache) mit Entsprechung im Target (Zielsprache), im Editor blau markiert ( = termFound im source)</t>
-  </si>
-  <si>
-    <t>Segmente im roten Block: Segmente im Source (Quellsprache) mit mindestens einem rot markierten Terminus. Im Editor sind das zum Zeitpunkt des Imports alle nicht gesperrten Segmente (= segmentsNotFound im source)</t>
-  </si>
-  <si>
-    <t>Segmente im blauen Block: Segmente im Source (Quellsprache) mit mindestens einem blau markierten Terminus. Im Editor sind das alle gesperrten Segmente und ein Teil der nicht gesperrten (= segmentsFound im source)</t>
-  </si>
-  <si>
-    <t>Wörter im roten Block: Anzahl der Wörter in Segmenten mit mindestens einem rot markierten Terminus</t>
-  </si>
-  <si>
-    <t>Wörter im blauen Block: Anzahl der Wörter in Segmenten mit mindestens einem blau markierten Terminus</t>
   </si>
   <si>
     <t>Die Arbeitsblätter 3 bis n sind nach den Zeilen auf dem Blatt „Zusammenfassung“ benannt.</t>
@@ -167,12 +143,108 @@
       <t xml:space="preserve">[nach Häufigkeit korrekt geordnet] </t>
     </r>
   </si>
+  <si>
+    <t>Segmente mit roten und blauen Termini werden daher im roten und blauen Block gezählt.</t>
+  </si>
+  <si>
+    <t>Generell:</t>
+  </si>
+  <si>
+    <t>Einzelne Spalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segmente / Datei: </t>
+  </si>
+  <si>
+    <t>werden immer im Target (Zielsprache) gezählt</t>
+  </si>
+  <si>
+    <t>Die Spalten Beschreibungen gelten jeweils analog für die gleichnamigen Spalten im blauen bzw. roten Block und für Export bzw. Import Daten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition roter Block: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition blauer Block: </t>
+  </si>
+  <si>
+    <t>Arbeitsblätter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segmente: </t>
+  </si>
+  <si>
+    <t>Segmente im roten Block haben im Source (Quellsprache) mindestens einen rot markierten Terminus. Im Editor sind das zum Zeitpunkt des Imports alle nicht gesperrten Segmente (= segmentsNotFound im source)</t>
+  </si>
+  <si>
+    <t>Segmente im blauen Block haben im Source (Quellsprache) mindestens einen blau markierten Terminus. Im Editor sind das alle gesperrten Segmente und ein Teil der nicht gesperrten (= segmentsFound im source)</t>
+  </si>
+  <si>
+    <t>Termini / Zeile:</t>
+  </si>
+  <si>
+    <t>Durchschnitt, berechnet sich aus Termini pro Zeile</t>
+  </si>
+  <si>
+    <t>Termini / Segment:</t>
+  </si>
+  <si>
+    <t>Durchschnitt, berechnet sich aus Termini pro Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wörter: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wörter / Segment: </t>
+  </si>
+  <si>
+    <t>Durchschnitt, berechnet sich aus Wörter pro Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termini: </t>
+  </si>
+  <si>
+    <t>Anzahl der Terme (rot oder blau, je nach Bereich) im Source (Quellsprache)</t>
+  </si>
+  <si>
+    <t>Segmente mit roten und blauen Termini:</t>
+  </si>
+  <si>
+    <t>Zeilen:</t>
+  </si>
+  <si>
+    <t>Berechnung: Zeichen / 55</t>
+  </si>
+  <si>
+    <t>Zeichen:</t>
+  </si>
+  <si>
+    <t>Gesamtanzahlt der Segmente in der Datei.</t>
+  </si>
+  <si>
+    <t>Filter:</t>
+  </si>
+  <si>
+    <t>Daten können auch gefiltert sein, dies erkennt man am Zusatz filtered im Dateinamen. Alle Zahlen beziehen sich auf Segmente die dem Filter entsprechen.</t>
+  </si>
+  <si>
+    <t>Statistiken im roten Block: Termini im Source (Quellsprache) ohne Entsprechung im Target (Zielsprache) vorhanden, im Editor rot markiert ( = termNotFound im source)</t>
+  </si>
+  <si>
+    <t>Statistiken im blauen Block: Termini im Source (Quellsprache) mit Entsprechung im Target (Zielsprache) vorhanden, im Editor blau markiert ( = termFound im source)</t>
+  </si>
+  <si>
+    <t>werden immer im Target (Zielsprache) gezählt, Wörter im roten Block: Anzahl der Wörter in Segmenten mit mindestens einem rot markierten Terminus im Source (Zielsprache)</t>
+  </si>
+  <si>
+    <t>werden immer im Target (Zielsprache) gezählt, Wörter im blauen Block: Anzahl der Wörter in Segmenten mit mindestens einem blau markierten Terminus im Source (Zielsprache)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +304,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -300,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,6 +421,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -636,155 +722,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="12.75">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="12.75">
       <c r="A1" s="2"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
-    </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="25.5">
-      <c r="A2" s="7" t="s">
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="25.5">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="12.75">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="12.75">
+      <c r="A3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="e">
-        <f>ROUND(B3/55,0)</f>
+      <c r="D3" s="8" t="e">
+        <f>ROUND(C3/55,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="e">
-        <f>ROUND(D3/C3, 2)</f>
+      <c r="G3" s="8" t="e">
+        <f>ROUND(E3/D3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="8" t="e">
-        <f>ROUND(D3/E3, 2)</f>
+      <c r="H3" s="8" t="e">
+        <f>ROUND(E3/F3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="e">
-        <f>ROUND(H3/E3,2)</f>
+      <c r="J3" s="8" t="e">
+        <f>ROUND(I3/F3,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8" t="e">
-        <f>ROUND(J3/55,0)</f>
+      <c r="L3" s="8" t="e">
+        <f>ROUND(K3/55,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="e">
-        <f>ROUND(L3/K3, 2)</f>
+      <c r="O3" s="8" t="e">
+        <f>ROUND(M3/L3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O3" s="8" t="e">
-        <f>ROUND(L3/M3, 2)</f>
+      <c r="P3" s="8" t="e">
+        <f>ROUND(M3/N3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="8" t="e">
-        <f>ROUND(P3/M3,2)</f>
+      <c r="R3" s="8" t="e">
+        <f>ROUND(Q3/N3,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="13" customFormat="1" ht="12.75">
+    <row r="4" spans="1:18" s="13" customFormat="1" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -792,71 +884,75 @@
         <f>SUM(B3:B3)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="e">
+      <c r="C4" s="2">
         <f>SUM(C3:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="e">
+        <f>SUM(D3:D3)</f>
         <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="2">
-        <f>SUM(D3:D3)</f>
-        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>SUM(E3:E3)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="e">
-        <f>ROUND(D4/C4, 2)</f>
+      <c r="F4" s="2">
+        <f>SUM(F3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="e">
+        <f>ROUND(E4/D4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G4" s="1" t="e">
-        <f t="shared" ref="G4" si="0">ROUND(D4/E4, 2)</f>
+      <c r="H4" s="1" t="e">
+        <f t="shared" ref="H4" si="0">ROUND(E4/F4, 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="2">
-        <f>SUM(H3:H3)</f>
+      <c r="I4" s="2">
+        <f>SUM(I3:I3)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="e">
-        <f>ROUND(H4/E4,2)</f>
+      <c r="J4" s="1" t="e">
+        <f>ROUND(I4/F4,2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="2">
-        <f>SUM(J3:J3)</f>
+      <c r="K4" s="2">
+        <f>SUM(K3:K3)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="e">
-        <f>SUM(K3:K3)</f>
+      <c r="L4" s="2" t="e">
+        <f>SUM(L3:L3)</f>
         <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="2">
-        <f>SUM(L3:L3)</f>
-        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f>SUM(M3:M3)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="e">
-        <f>ROUND(L4/K4, 2)</f>
+      <c r="N4" s="2">
+        <f>SUM(N3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="e">
+        <f>ROUND(M4/L4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O4" s="1" t="e">
-        <f t="shared" ref="O4" si="1">ROUND(L4/M4, 2)</f>
+      <c r="P4" s="1" t="e">
+        <f t="shared" ref="P4" si="1">ROUND(M4/N4, 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="2">
-        <f>SUM(P3:P3)</f>
+      <c r="Q4" s="2">
+        <f>SUM(Q3:Q3)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="1" t="e">
-        <f>ROUND(P4/M4,2)</f>
+      <c r="R4" s="1" t="e">
+        <f>ROUND(Q4/N4,2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="K1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -940,7 +1036,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
@@ -957,112 +1053,220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="133.42578125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="10" customFormat="1" ht="12.75">
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="25.5">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" s="10" customFormat="1" ht="12.75">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" s="10" customFormat="1" ht="12.75">
-      <c r="A11" s="18" t="s">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="A12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="10" customFormat="1" ht="12.75">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="10" customFormat="1" ht="25.5">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="A13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="10" customFormat="1" ht="25.5">
+      <c r="A15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="10" customFormat="1" ht="25.5">
-      <c r="A14" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="10" customFormat="1" ht="38.25">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="A16" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="10" customFormat="1" ht="12.75">
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" s="10" customFormat="1" ht="38.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="10" customFormat="1" ht="25.5">
-      <c r="A17" s="18" t="s">
+      <c r="B20" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="10" customFormat="1" ht="25.5">
-      <c r="A18" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="10" customFormat="1" ht="12.75">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" ht="12.75">
-      <c r="A20" s="18" t="s">
-        <v>44</v>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
+++ b/application/modules/editor/Plugins/SegmentStatistics/templates/import-template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>zu bereinigen (nicht gesperrte Segmente)</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>werden immer im Target (Zielsprache) gezählt, Wörter im blauen Block: Anzahl der Wörter in Segmenten mit mindestens einem blau markierten Terminus im Source (Zielsprache)</t>
+  </si>
+  <si>
+    <t>Zeichen / Datei</t>
+  </si>
+  <si>
+    <t>Zeilen / Datei</t>
+  </si>
+  <si>
+    <t>STAT.import.target.charCount</t>
   </si>
 </sst>
 </file>
@@ -415,12 +424,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -428,6 +431,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -722,161 +731,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="12.75">
+    <row r="1" spans="1:20" s="13" customFormat="1" ht="12.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="20" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="25.5">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="25.5">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" ht="12.75">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="12.75">
+      <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="e">
         <f>ROUND(C3/55,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="e">
+        <f>ROUND(E3/55,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="e">
-        <f>ROUND(E3/D3, 2)</f>
+      <c r="I3" s="8" t="e">
+        <f>ROUND(G3/F3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3" s="8" t="e">
-        <f>ROUND(E3/F3, 2)</f>
+      <c r="J3" s="8" t="e">
+        <f>ROUND(G3/H3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="e">
-        <f>ROUND(I3/F3,2)</f>
+      <c r="L3" s="8" t="e">
+        <f>ROUND(K3/H3,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8" t="e">
-        <f>ROUND(K3/55,0)</f>
+      <c r="N3" s="8" t="e">
+        <f>ROUND(M3/55,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="e">
-        <f>ROUND(M3/L3, 2)</f>
+      <c r="Q3" s="8" t="e">
+        <f>ROUND(O3/N3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P3" s="8" t="e">
-        <f>ROUND(M3/N3, 2)</f>
+      <c r="R3" s="8" t="e">
+        <f>ROUND(O3/P3, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="8" t="e">
-        <f>ROUND(Q3/N3,2)</f>
+      <c r="T3" s="8" t="e">
+        <f>ROUND(S3/P3,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" ht="12.75">
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -888,7 +914,7 @@
         <f>SUM(C3:C3)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="e">
+      <c r="D4" s="2" t="e">
         <f>SUM(D3:D3)</f>
         <v>#VALUE!</v>
       </c>
@@ -896,63 +922,71 @@
         <f>SUM(E3:E3)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1" t="e">
         <f>SUM(F3:F3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SUM(G3:G3)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="e">
-        <f>ROUND(E4/D4, 2)</f>
+      <c r="H4" s="2">
+        <f>SUM(H3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="e">
+        <f>ROUND(G4/F4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="1" t="e">
-        <f t="shared" ref="H4" si="0">ROUND(E4/F4, 2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="2">
-        <f>SUM(I3:I3)</f>
-        <v>0</v>
-      </c>
       <c r="J4" s="1" t="e">
-        <f>ROUND(I4/F4,2)</f>
+        <f t="shared" ref="J4" si="0">ROUND(G4/H4, 2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="2">
         <f>SUM(K3:K3)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="e">
-        <f>SUM(L3:L3)</f>
-        <v>#VALUE!</v>
+      <c r="L4" s="1" t="e">
+        <f>ROUND(K4/H4,2)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="2">
         <f>SUM(M3:M3)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="2" t="e">
         <f>SUM(N3:N3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" s="2">
+        <f>SUM(O3:O3)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="e">
-        <f>ROUND(M4/L4, 2)</f>
+      <c r="P4" s="2">
+        <f>SUM(P3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="e">
+        <f>ROUND(O4/N4, 2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P4" s="1" t="e">
-        <f t="shared" ref="P4" si="1">ROUND(M4/N4, 2)</f>
+      <c r="R4" s="1" t="e">
+        <f t="shared" ref="R4" si="1">ROUND(O4/P4, 2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="2">
-        <f>SUM(Q3:Q3)</f>
+      <c r="S4" s="2">
+        <f>SUM(S3:S3)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="e">
-        <f>ROUND(Q4/N4,2)</f>
+      <c r="T4" s="1" t="e">
+        <f>ROUND(S4/P4,2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="M1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1062,7 +1096,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="133.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="133.42578125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
@@ -1072,65 +1106,65 @@
     </row>
     <row r="2" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A2" s="17"/>
-      <c r="B2" s="23"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" s="10" customFormat="1" ht="25.5">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A10" s="18"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2" s="10" customFormat="1" ht="12.75">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2" s="10" customFormat="1" ht="12.75">
       <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1138,7 +1172,7 @@
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1146,7 +1180,7 @@
       <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1154,7 +1188,7 @@
       <c r="A15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1162,106 +1196,106 @@
       <c r="A16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="10" customFormat="1" ht="12.75">
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>56</v>
       </c>
     </row>
